--- a/doc/ue_tickfunction.xlsx
+++ b/doc/ue_tickfunction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E8DEE4-7CAC-48A0-AE80-8EFBC2B40828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595F1954-CBAF-4C94-B71B-C583757A1C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="FTickTaskManager" sheetId="4" r:id="rId4"/>
     <sheet name="调度" sheetId="5" r:id="rId5"/>
     <sheet name="注意问题" sheetId="6" r:id="rId6"/>
+    <sheet name="EndGroup" sheetId="7" r:id="rId7"/>
+    <sheet name="调度时的EndGroup" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="174">
   <si>
     <t>FActorComponentTickFunction</t>
   </si>
@@ -478,6 +480,108 @@
   </si>
   <si>
     <t>会计算最后真实的GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICK一般都有一个开始的TickGroup，一个EndGroup，EndGroup的含义就是在某一个阶段必须等其TASK完成才可以继续往下走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::RunTickGroup(ETickingGroup Group, bool bBlockTillComplete = true)</t>
+  </si>
+  <si>
+    <t>默认就是需要强制等待，该阶段的TASK全部完成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void RunTickGroup(ETickingGroup Group, bool bBlockTillComplete ) override</t>
+  </si>
+  <si>
+    <t>TickTaskSequencer.ReleaseTickGroup(Group, bBlockTillComplete);</t>
+  </si>
+  <si>
+    <t>void ReleaseTickGroup(ETickingGroup WorldTickGroup, bool bBlockTillComplete)</t>
+  </si>
+  <si>
+    <t>if (bBlockTillComplete || SingleThreadedMode())</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_ReleaseTickGroup_Block);</t>
+  </si>
+  <si>
+    <t>for (ETickingGroup Block = WaitForTickGroup; Block &lt;= WorldTickGroup; Block = ETickingGroup(Block + 1))</t>
+  </si>
+  <si>
+    <t>CA_SUPPRESS(6385);</t>
+  </si>
+  <si>
+    <t>if (TickCompletionEvents[Block].Num())</t>
+  </si>
+  <si>
+    <t>TRACE_CPUPROFILER_EVENT_SCOPE(TickCompletionEvents);</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().WaitUntilTasksComplete(TickCompletionEvents[Block], ENamedThreads::GameThread);</t>
+  </si>
+  <si>
+    <t>if (SingleThreadedMode() || Block == TG_NewlySpawned || CVarAllowAsyncTickCleanup.GetValueOnGameThread() == 0 || TickCompletionEvents[Block].Num() &lt; 50)</t>
+  </si>
+  <si>
+    <t>ResetTickGroup(Block);</t>
+  </si>
+  <si>
+    <t>DECLARE_CYCLE_STAT(TEXT("FDelegateGraphTask.ResetTickGroup"), STAT_FDelegateGraphTask_ResetTickGroup, STATGROUP_TaskGraphTasks);</t>
+  </si>
+  <si>
+    <t>CleanupTasks.Add(TGraphTask&lt;FResetTickGroupTask&gt;::CreateTask(nullptr, ENamedThreads::GameThread).ConstructAndDispatchWhenReady(*this, Block));</t>
+  </si>
+  <si>
+    <t>WaitForTickGroup = ETickingGroup(WorldTickGroup + (WorldTickGroup == TG_NewlySpawned ? 0 : 1)); // don't advance for newly spawned</t>
+  </si>
+  <si>
+    <t>// since this is used to soak up some async time for another task (physics), we should process whatever we have now</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().ProcessThreadUntilIdle(ENamedThreads::GameThread);</t>
+  </si>
+  <si>
+    <t>check(WorldTickGroup + 1 &lt; TG_MAX &amp;&amp; WorldTickGroup != TG_NewlySpawned); // you must block on the last tick group! And we must block on newly spawned</t>
+  </si>
+  <si>
+    <t>！！！强制等待该阶段的Task全部完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有这个是例外，其他都是需要强制等待的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Add a completion handle to a tick group **/</t>
+  </si>
+  <si>
+    <t>FORCEINLINE void AddTickTaskCompletion(ETickingGroup StartTickGroup, ETickingGroup EndTickGroup, TGraphTask&lt;FTickFunctionTask&gt;* Task, bool bHiPri)</t>
+  </si>
+  <si>
+    <t>checkSlow(StartTickGroup &gt;=0 &amp;&amp; StartTickGroup &lt; TG_MAX &amp;&amp; EndTickGroup &gt;=0 &amp;&amp; EndTickGroup &lt; TG_MAX &amp;&amp; StartTickGroup &lt;= EndTickGroup);</t>
+  </si>
+  <si>
+    <t>if (bHiPri)</t>
+  </si>
+  <si>
+    <t>HiPriTickTasks[StartTickGroup][EndTickGroup].Add(Task);</t>
+  </si>
+  <si>
+    <t>TickTasks[StartTickGroup][EndTickGroup].Add(Task);</t>
+  </si>
+  <si>
+    <t>new (TickCompletionEvents[EndTickGroup]) FGraphEventRef(Task-&gt;GetCompletionEvent());</t>
+  </si>
+  <si>
+    <t>每一帧的TICK调度，都需要创建一个新的TASK，将tASK插入到各个阶段的列表中，然后把其完成事件插入到对应的EndGroup队列中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -2015,4 +2119,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F860F4-0BDC-48E8-A2C8-62A20CD91F48}">
+  <dimension ref="B3:T39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680D4964-D84A-41CA-A2BF-028FCCFDF67C}">
+  <dimension ref="B3:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>